--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1709155.776833074</v>
+        <v>1787474.01845807</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558488</v>
+        <v>698313.6830760738</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6548128.675857082</v>
+        <v>6978026.101834908</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>223.9280469501755</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>397.188167166915</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>182.6995493400599</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -877,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>187.2256325115549</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>184.8097125190218</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.13410914208</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.7744269909771</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>216.9462049119573</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>300.1179630699521</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>52.92260257517064</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>271.5104525493489</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.50686162210392</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1424,13 +1426,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1537,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>28.93644411482665</v>
+        <v>75.73201610191977</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1579,22 +1581,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>267.2379268672942</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>75.14179333952212</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>101.330737619658</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.7092997993673</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>47.24726165657607</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.47552793723625</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>75.41330364725212</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>150.1330858937262</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.46190328355836</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>55.81450188835453</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>250.6734045084265</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2950,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>98.26334559068106</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>16.73661137786902</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>12.82988994717986</v>
+        <v>28.46809341379804</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>139.5534052616322</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3664,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>98.15366458399271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>276.2823926420319</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>54.54403228521156</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>146.8887806734697</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.51103233247981</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4144,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4186,22 +4188,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>227.635750397087</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.472491025951</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.2593601902432</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>1966.556343058789</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.164993359136</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X2" t="n">
-        <v>1158.444994526883</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y2" t="n">
-        <v>753.1077244817733</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>874.3078922751886</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L3" t="n">
-        <v>1424.973427259627</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M3" t="n">
-        <v>1424.973427259627</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N3" t="n">
-        <v>1853.185855629757</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C4" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
         <v>792.3900115791711</v>
@@ -4486,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1823.192592335291</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1543.008143835595</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1261.296676443624</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1261.296676443624</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1018.732779889429</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.614269593831</v>
+        <v>776.2016990565496</v>
       </c>
       <c r="C5" t="n">
-        <v>404.9377923018898</v>
+        <v>753.3413731102538</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>734.0891563356581</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>308.1122164835157</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>287.02843871332</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>286.7297803431726</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4571,22 +4573,22 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4598,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.799903930471</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.462633885361</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4750,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.398243894584</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>1764.398243894584</v>
+        <v>1520.726443184511</v>
       </c>
       <c r="X7" t="n">
-        <v>1521.834347340389</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y7" t="n">
-        <v>1295.491579030131</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>107.0694137759246</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4841,13 +4843,13 @@
         <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1570.164993359136</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1158.444994526883</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>753.1077244817733</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764427</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.8175733480448</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>783.8450102269608</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2171.454078144021</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1889.74261075205</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1614.890206924563</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1372.326310370368</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1145.98354206011</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2077.103995302137</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1650.203265315437</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1226.910644500437</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1607.830298401975</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2408.271910799778</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O11" t="n">
-        <v>2408.271910799778</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712749</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757382</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2908.814659757382</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2908.814659757382</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2908.814659757382</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>2497.094660925129</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2091.75739088002</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679216</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679216</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="M12" t="n">
-        <v>865.1237628945952</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.565375292398</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1665.565375292398</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1665.565375292398</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1033.295735958301</v>
+        <v>605.867477820625</v>
       </c>
       <c r="C13" t="n">
-        <v>861.3231728372173</v>
+        <v>605.867477820625</v>
       </c>
       <c r="D13" t="n">
-        <v>698.006399963988</v>
+        <v>442.5507049473957</v>
       </c>
       <c r="E13" t="n">
-        <v>531.7981941168415</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="F13" t="n">
-        <v>359.9364198914019</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="G13" t="n">
-        <v>193.679450185634</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2027.921517116229</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1747.737068616533</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1466.025601224562</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.025601224562</v>
+        <v>1264.940111397143</v>
       </c>
       <c r="X13" t="n">
-        <v>1223.461704670367</v>
+        <v>1022.376214842949</v>
       </c>
       <c r="Y13" t="n">
-        <v>1223.461704670367</v>
+        <v>796.0334465326906</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1183.889011029888</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1183.889011029888</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>760.5963902148883</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>334.6194503627459</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>334.6194503627459</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679216</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>865.1237628945952</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>1665.565375292398</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2466.006987690201</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>2466.006987690201</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453522</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480654</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2397.337629606904</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2000.946279907251</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1589.226281074998</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1183.889011029888</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763832</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>1136.821252174186</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>1873.369781077302</v>
+        <v>937.263987363325</v>
       </c>
       <c r="N15" t="n">
-        <v>1873.369781077302</v>
+        <v>937.263987363325</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>722.2665325326219</v>
+        <v>684.4570266215845</v>
       </c>
       <c r="C16" t="n">
-        <v>722.2665325326219</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="D16" t="n">
-        <v>646.3657311795693</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2027.921517116229</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U16" t="n">
-        <v>1747.737068616533</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>1466.025601224562</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.173197397075</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X16" t="n">
-        <v>948.6093008428799</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.2665325326219</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5503,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623575</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5522,28 +5524,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.65448214973</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636431</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787243</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5589,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.715267670341</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>416.0527580951347</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>249.7957883893668</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1477.48047715319</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>1234.916580598995</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.916580598995</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5750,13 +5752,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
         <v>2011.818868109901</v>
@@ -5795,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299907</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358278</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302486</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506134</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.677127506134</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2235.677127506134</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2235.677127506134</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1953.965660114163</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1679.113256286676</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1436.549359732481</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1210.206591422223</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3851.695559555389</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C25" t="n">
-        <v>3679.722996434305</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="D25" t="n">
-        <v>3516.406223561076</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>4824.768167797171</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>4543.0567004052</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>4268.204296577713</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>4268.204296577713</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y25" t="n">
-        <v>4041.861528267455</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,16 +6305,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.68756743822</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>869.7150043171358</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>706.3982314439065</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1953.965660114159</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.760201014738</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>1458.196304460543</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>1231.853536150285</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.84032174079</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C31" t="n">
-        <v>3106.584417103738</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>3106.584417103738</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>3106.584417103738</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3864.912955317308</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X31" t="n">
-        <v>3622.349058763114</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y31" t="n">
-        <v>3396.006290452855</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.7597400424195</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C34" t="n">
-        <v>444.7871769213355</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D34" t="n">
-        <v>281.4704040481062</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="E34" t="n">
-        <v>115.2621982009597</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="F34" t="n">
-        <v>115.2621982009597</v>
+        <v>397.0839012842478</v>
       </c>
       <c r="G34" t="n">
-        <v>115.2621982009597</v>
+        <v>230.8269315784799</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.832373618938</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1033.268477064743</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.9257087544852</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076927</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982686</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133499</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7011,22 +7013,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1163.130098674646</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>991.1575355535624</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7126,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1822.202732251165</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1822.202732251165</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1579.63883569697</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1353.296067386712</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572743</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991801</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478502</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629314</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4478291472353</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4478291472353</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4478291472353</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F40" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2045.049746842074</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1618.149016855374</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1194.856396040375</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>768.8794561882322</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>343.7552743776324</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>343.7552743776324</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>865.123762894595</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1665.565375292398</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N41" t="n">
-        <v>2466.006987690201</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2876.618109965857</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2876.618109965857</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>2464.898111133604</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2464.898111133604</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679215</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="M42" t="n">
-        <v>272.4865562816963</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.928168679499</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1030.985692006219</v>
+        <v>3640.589801095121</v>
       </c>
       <c r="C43" t="n">
-        <v>975.890709899945</v>
+        <v>3468.617237974037</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267157</v>
+        <v>3305.300465100808</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795693</v>
+        <v>3139.092259253661</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>2967.230485028222</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483618</v>
+        <v>2967.230485028222</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>2245.09517790992</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.910729410225</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1964.910729410225</v>
+        <v>4331.950941944931</v>
       </c>
       <c r="W43" t="n">
-        <v>1690.058325582738</v>
+        <v>4057.098538117445</v>
       </c>
       <c r="X43" t="n">
-        <v>1447.494429028543</v>
+        <v>4057.098538117445</v>
       </c>
       <c r="Y43" t="n">
-        <v>1221.151660718285</v>
+        <v>3830.755769807186</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.976622961234</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.075892974534</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>64.68215049679215</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>865.123762894595</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N44" t="n">
-        <v>1665.565375292398</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>2466.006987690201</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3213.389310362355</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3213.389310362355</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2955.034400958767</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2597.544986085017</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2597.544986085017</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2185.824987252764</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2185.824987252764</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3202.606256330908</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>3202.606256330908</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679215</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="M45" t="n">
-        <v>865.123762894595</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.565375292398</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>4287.649526911006</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2027.921517116229</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1747.737068616533</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V46" t="n">
-        <v>1747.737068616533</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W46" t="n">
-        <v>1747.737068616533</v>
+        <v>1308.330394921156</v>
       </c>
       <c r="X46" t="n">
-        <v>1505.173172062338</v>
+        <v>1065.766498366961</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>839.4237300567033</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
@@ -7985,19 +7987,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>451.134864077236</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>268.0669951958121</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>453.880834648017</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>300.5986134498011</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>455.0528931487048</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>86.02369229001789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>173.266988396334</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>64.90422000234146</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>287.4399897374262</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222301</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234437</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>149.8026905114033</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>390.0005948959937</v>
       </c>
       <c r="P14" t="n">
-        <v>233.9983140964142</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9000,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0419679241317</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>767.0851935457782</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>772.3958632350179</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>228.1560083209544</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,13 +10825,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>705.163486220521</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>681.7356392914811</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>813.250087789768</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766267</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>694.6907176359928</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>233.0753299089942</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>401.1430190265108</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>113.4218616921005</v>
+        <v>66.62628970500738</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>133.0577449191517</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="15">
@@ -23653,16 +23655,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>86.54181180497487</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.81241886352718</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.55500922557772</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>95.11104415035108</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.7887810877087</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>14.46131411498402</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>204.9207007311404</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>132.4498071365905</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>21.43047528078557</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>71.98949189919209</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24847,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>255.3672684113431</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>129.5284158597473</v>
+        <v>113.8902123931291</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22.13019988286479</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>56.16198359622884</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>44.20464122293444</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>18.60730209867364</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>132.0055720445817</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81258885311118</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>44.46812939212515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>58.6068496012044</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448594.5458656069</v>
+        <v>595726.4887690245</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448594.5458656069</v>
+        <v>595726.4887690243</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604978.7433313995</v>
+        <v>604978.7433313994</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>604978.7433313995</v>
+        <v>604978.7433313994</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448594.5458656069</v>
+        <v>595726.4887690246</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448594.5458656068</v>
+        <v>595726.4887690245</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
+        <v>436832.0010083722</v>
+      </c>
+      <c r="D2" t="n">
         <v>436832.0010083723</v>
       </c>
-      <c r="D2" t="n">
-        <v>436832.0010083724</v>
-      </c>
       <c r="E2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882403</v>
       </c>
       <c r="G2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="H2" t="n">
         <v>421522.8023530854</v>
@@ -26335,7 +26337,7 @@
         <v>421522.8023530853</v>
       </c>
       <c r="J2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="K2" t="n">
         <v>421522.8023530855</v>
@@ -26344,16 +26346,16 @@
         <v>421522.8023530855</v>
       </c>
       <c r="M2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="N2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="O2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882409</v>
       </c>
       <c r="P2" t="n">
-        <v>312571.8840020595</v>
+        <v>415076.8720882405</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346226</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115404</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="F4" t="n">
-        <v>32409.76799618242</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="O4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046205</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17605.27751375042</v>
+        <v>17605.2775137503</v>
       </c>
       <c r="C6" t="n">
-        <v>204010.0109284876</v>
+        <v>204010.0109284875</v>
       </c>
       <c r="D6" t="n">
         <v>204010.0109284877</v>
       </c>
       <c r="E6" t="n">
-        <v>155672.7304748527</v>
+        <v>88508.54040318506</v>
       </c>
       <c r="F6" t="n">
-        <v>231003.6816283149</v>
+        <v>295940.8280197458</v>
       </c>
       <c r="G6" t="n">
-        <v>171133.9398992197</v>
+        <v>292398.7176272786</v>
       </c>
       <c r="H6" t="n">
-        <v>300024.3397107602</v>
+        <v>300024.3397107601</v>
       </c>
       <c r="I6" t="n">
         <v>300024.33971076</v>
       </c>
       <c r="J6" t="n">
-        <v>154490.6697759434</v>
+        <v>154490.6697759437</v>
       </c>
       <c r="K6" t="n">
         <v>300024.3397107602</v>
@@ -26552,16 +26554,16 @@
         <v>300024.3397107602</v>
       </c>
       <c r="M6" t="n">
-        <v>237150.4027453863</v>
+        <v>126893.8485051205</v>
       </c>
       <c r="N6" t="n">
         <v>300024.3397107602</v>
       </c>
       <c r="O6" t="n">
-        <v>231003.681628315</v>
+        <v>295940.8280197463</v>
       </c>
       <c r="P6" t="n">
-        <v>231003.681628315</v>
+        <v>295940.828019746</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943079</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629546</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943079</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629546</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>198.7036757366574</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.095730177743576</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>58.20640495629905</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36.85370811560045</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>237.8220101678111</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>55.08045499971968</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27670,16 +27672,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.13019988286499</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>141.329452798235</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.7036757366574</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28065,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>224.4600014395281</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.5934272398632174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28980,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
@@ -34705,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>415.010189472638</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>245.6677613624788</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>432.5378064344753</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>432.5378064344752</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>150.7519016821044</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>27.47295710290965</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>251.3153151328282</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.0556522224249</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>352.6096355399696</v>
       </c>
       <c r="P14" t="n">
-        <v>196.4229522861829</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>743.9884130334502</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>734.9646003355862</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>205.0592278086264</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127487</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>666.8514437878981</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>644.3043763920493</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>775.859128433744</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>657.1153558257614</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>209.903440186772</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1787474.01845807</v>
+        <v>1786756.028343212</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760738</v>
+        <v>698313.6830760734</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6978026.101834908</v>
+        <v>6978026.101834909</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>215.4409309196201</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>397.188167166915</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.2256325115549</v>
+        <v>132.8558696941865</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>203.7449501033102</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>239.8092397409858</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1068,10 +1068,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>130.7744269909771</v>
+        <v>73.88082355467101</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1138,19 +1138,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.1179630699521</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>1.90238701379815</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>271.5104525493489</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1432,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>284.4554049657235</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>75.73201610191977</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,10 +1584,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>95.21254288353704</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.3118661077256</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>159.9968571116582</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>101.330737619658</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1815,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.87597792716858</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.24726165657607</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>75.41330364725212</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>38.79401734269375</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>150.1330858937262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.81450188835453</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>151.4276247662822</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -2772,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -2970,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>24.43802729683394</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3006,13 +3006,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>16.73661137786902</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46809341379804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>111.0703780227394</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9811728869526</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3717,10 +3717,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>12.7886352292485</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>174.5134950916767</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>146.8887806734697</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4033,10 +4033,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>64.54655501193163</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4191,13 +4191,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>227.635750397087</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>1133.6911139303</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>706.7903839436005</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>283.4977631286008</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505812</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X2" t="n">
-        <v>879.7031186113101</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>1553.53947822183</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>287.7093087981016</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L3" t="n">
-        <v>287.7093087981016</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M3" t="n">
-        <v>287.7093087981016</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N3" t="n">
-        <v>287.7093087981016</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7067844524004</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D4" t="n">
         <v>792.3900115791711</v>
@@ -4488,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>1897.688190649854</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1615.976723257883</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.823584969123</v>
+        <v>1341.124319430396</v>
       </c>
       <c r="X4" t="n">
-        <v>1144.823584969123</v>
+        <v>1098.560422876201</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.7067844524004</v>
+        <v>964.3625747002551</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.2016990565496</v>
+        <v>312.8723936782581</v>
       </c>
       <c r="C5" t="n">
-        <v>753.3413731102538</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>734.0891563356581</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1122164835157</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>287.02843871332</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7297803431726</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>734.0176239744937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1196.05006334808</v>
+        <v>328.6803539293841</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4752,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.533291375449</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>1371.214581277349</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>1128.650684723154</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>902.3079164128965</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>1761.899316134962</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
         <v>792.3900115791711</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1426.535052361094</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>1183.971155806899</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>957.6283874966409</v>
       </c>
     </row>
     <row r="11">
@@ -5053,13 +5053,13 @@
         <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3084.064817777362</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3929.209467928174</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4637.488747086102</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
         <v>4886.290909067602</v>
@@ -5080,10 +5080,10 @@
         <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
         <v>2958.324093828008</v>
@@ -5123,25 +5123,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>1019.283297448028</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>605.867477820625</v>
+        <v>745.3707552122954</v>
       </c>
       <c r="C13" t="n">
-        <v>605.867477820625</v>
+        <v>573.3981920912114</v>
       </c>
       <c r="D13" t="n">
-        <v>442.5507049473957</v>
+        <v>410.0814192179821</v>
       </c>
       <c r="E13" t="n">
-        <v>276.3424991002493</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="F13" t="n">
-        <v>276.3424991002493</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G13" t="n">
-        <v>276.3424991002493</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1770.841291296206</v>
       </c>
       <c r="V13" t="n">
-        <v>1539.792515224631</v>
+        <v>1489.129823904235</v>
       </c>
       <c r="W13" t="n">
-        <v>1264.940111397143</v>
+        <v>1214.277420076748</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.376214842949</v>
+        <v>971.7135235225534</v>
       </c>
       <c r="Y13" t="n">
-        <v>796.0334465326906</v>
+        <v>745.3707552122954</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5281,16 +5281,16 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
         <v>3721.926150405491</v>
@@ -5305,25 +5305,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>937.263987363325</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N15" t="n">
-        <v>937.263987363325</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.4570266215845</v>
+        <v>579.0517604695045</v>
       </c>
       <c r="C16" t="n">
-        <v>512.4844635005005</v>
+        <v>579.0517604695045</v>
       </c>
       <c r="D16" t="n">
-        <v>512.4844635005005</v>
+        <v>415.7349875962752</v>
       </c>
       <c r="E16" t="n">
-        <v>512.4844635005005</v>
+        <v>415.7349875962752</v>
       </c>
       <c r="F16" t="n">
-        <v>410.1301830766035</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G16" t="n">
         <v>243.8732133708357</v>
@@ -5463,25 +5463,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.112011205191</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1709.927562705496</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1428.216095313524</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1153.363691486037</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X16" t="n">
-        <v>910.7997949318425</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.4570266215845</v>
+        <v>740.6647474509774</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5527,16 +5527,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416583</v>
+        <v>496.5168264363608</v>
       </c>
       <c r="C19" t="n">
-        <v>587.9145323205743</v>
+        <v>324.5442633152768</v>
       </c>
       <c r="D19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>416.0527580951347</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>249.7957883893668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1992.337779732033</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1712.153331232337</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1430.441863840366</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1155.589460012879</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519162</v>
+        <v>913.0255634586844</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416583</v>
+        <v>686.6827951484264</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5782,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5840,19 +5840,19 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299907</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358278</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.337779732034</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1992.337779732034</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1953.151903628303</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1678.299499800816</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6074,22 +6074,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7211267295927</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>397.7485636085087</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.650469582768</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,19 +6314,19 @@
         <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G28" t="n">
         <v>246.0989818976742</v>
@@ -6420,16 +6420,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595294</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>207.5440612468791</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6548,13 +6548,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O30" t="n">
         <v>1194.79262694784</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.328514724526</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2258.030864761549</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2087.895817280684</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.401148301044</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.83725174685</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>774.4944834365917</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6785,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
         <v>1194.79262694784</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9456755096874</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>568.9456755096874</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>568.9456755096874</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>397.0839012842478</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G34" t="n">
-        <v>230.8269315784799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7140,7 +7140,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="38">
@@ -7177,19 +7177,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7201,25 +7201,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1907.815376917197</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657505</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C40" t="n">
-        <v>380.7519841446665</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D40" t="n">
-        <v>217.4352112714372</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>217.4352112714372</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7335,49 +7335,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1856.323532201118</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1856.323532201118</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1581.471128373631</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1338.907231819436</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>1112.564463509178</v>
       </c>
     </row>
     <row r="41">
@@ -7420,10 +7420,10 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
         <v>3721.926150405491</v>
@@ -7453,10 +7453,10 @@
         <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>355.3041521238506</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M42" t="n">
-        <v>355.3041521238506</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3640.589801095121</v>
+        <v>438.2577138472205</v>
       </c>
       <c r="C43" t="n">
-        <v>3468.617237974037</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="D43" t="n">
-        <v>3305.300465100808</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="E43" t="n">
-        <v>3139.092259253661</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F43" t="n">
-        <v>2967.230485028222</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>2967.230485028222</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>1934.078667142893</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1653.894218643197</v>
       </c>
       <c r="V43" t="n">
-        <v>4331.950941944931</v>
+        <v>1372.182751251226</v>
       </c>
       <c r="W43" t="n">
-        <v>4057.098538117445</v>
+        <v>1097.330347423739</v>
       </c>
       <c r="X43" t="n">
-        <v>4057.098538117445</v>
+        <v>854.7664508695441</v>
       </c>
       <c r="Y43" t="n">
-        <v>3830.755769807186</v>
+        <v>628.4236825592861</v>
       </c>
     </row>
     <row r="44">
@@ -7657,10 +7657,10 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7681,7 +7681,7 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
         <v>4171.772712405023</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3202.606256330908</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3202.606256330908</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3398.168248899535</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L45" t="n">
-        <v>3398.168248899535</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M45" t="n">
-        <v>3398.168248899535</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N45" t="n">
-        <v>3398.168248899535</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O45" t="n">
-        <v>4287.649526911006</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.4237300567033</v>
+        <v>652.9060911334518</v>
       </c>
       <c r="C46" t="n">
-        <v>839.4237300567033</v>
+        <v>480.9335280123678</v>
       </c>
       <c r="D46" t="n">
-        <v>676.106957183474</v>
+        <v>415.7349875962752</v>
       </c>
       <c r="E46" t="n">
-        <v>509.8987513363276</v>
+        <v>415.7349875962752</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>1819.976963724326</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V46" t="n">
-        <v>1538.265496332355</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="W46" t="n">
-        <v>1308.330394921156</v>
+        <v>1311.97872470997</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.766498366961</v>
+        <v>1069.414828155775</v>
       </c>
       <c r="Y46" t="n">
-        <v>839.4237300567033</v>
+        <v>843.0720598455175</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>268.0669951958121</v>
+        <v>462.4589018454972</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8297,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>98.59786501766862</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8467,13 +8467,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>287.4399897374262</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8771,10 +8771,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,16 +8783,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
-        <v>390.0005948959937</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>861.2183961915432</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>971.640792401891</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9412,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9488,22 +9488,22 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>921.9548738586921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>105.9869822143642</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,13 +9722,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>198.0542523912748</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350203</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,10 +9883,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9898,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>300.5735435756951</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>135.7243512442234</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,16 +10120,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10196,16 +10196,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10433,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>467.0745387486232</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10825,13 +10825,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10907,22 +10907,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.95407573255603</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>681.7356392914811</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11138,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766267</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>814.1663547822778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>653.3771105638739</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>219.9366000642696</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>66.62628970500738</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>182.1700611311617</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>28.26745191328683</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>68.81241886352718</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>111.8076272173284</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>95.11104415035108</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>240.1003353753576</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.46131411498402</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4498071365905</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>13.11849902239277</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.13019988286464</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3672684113431</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8902123931291</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>50.61322712175763</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,7 +25326,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>56.16198359622884</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>264.5939687854503</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,22 +25836,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.39245920468227</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.13705013256536</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>44.46812939212515</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>595726.4887690245</v>
+        <v>595726.4887690244</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>595726.4887690243</v>
+        <v>595726.4887690244</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604978.7433313994</v>
+        <v>604978.7433313995</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>604978.7433313994</v>
+        <v>604978.7433313995</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>604978.7433313995</v>
+        <v>604978.7433313994</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>595726.4887690246</v>
+        <v>595726.4887690245</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595726.4887690245</v>
+        <v>595726.4887690244</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083723</v>
+        <v>436832.0010083724</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083722</v>
+        <v>436832.0010083724</v>
       </c>
       <c r="D2" t="n">
-        <v>436832.0010083723</v>
+        <v>436832.0010083725</v>
       </c>
       <c r="E2" t="n">
         <v>415076.8720882405</v>
       </c>
       <c r="F2" t="n">
-        <v>415076.8720882403</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="G2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="H2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="I2" t="n">
         <v>421522.8023530854</v>
       </c>
-      <c r="I2" t="n">
-        <v>421522.8023530853</v>
-      </c>
       <c r="J2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="K2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="L2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="M2" t="n">
         <v>421522.8023530855</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>421522.8023530855</v>
       </c>
-      <c r="L2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="N2" t="n">
-        <v>421522.8023530854</v>
-      </c>
       <c r="O2" t="n">
-        <v>415076.8720882409</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="P2" t="n">
         <v>415076.8720882405</v>
@@ -26426,13 +26426,13 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43077.56596046205</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
         <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389557</v>
@@ -26441,13 +26441,13 @@
         <v>43748.40045389557</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389557</v>
@@ -26459,7 +26459,7 @@
         <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
-        <v>43077.56596046205</v>
+        <v>43077.56596046206</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17605.2775137503</v>
+        <v>17605.27751375042</v>
       </c>
       <c r="C6" t="n">
-        <v>204010.0109284875</v>
+        <v>204010.0109284877</v>
       </c>
       <c r="D6" t="n">
         <v>204010.0109284877</v>
       </c>
       <c r="E6" t="n">
-        <v>88508.54040318506</v>
+        <v>88436.02330678457</v>
       </c>
       <c r="F6" t="n">
-        <v>295940.8280197458</v>
+        <v>295868.3109233456</v>
       </c>
       <c r="G6" t="n">
-        <v>292398.7176272786</v>
+        <v>292347.6869650945</v>
       </c>
       <c r="H6" t="n">
-        <v>300024.3397107601</v>
+        <v>299973.3090485759</v>
       </c>
       <c r="I6" t="n">
-        <v>300024.33971076</v>
+        <v>299973.3090485758</v>
       </c>
       <c r="J6" t="n">
-        <v>154490.6697759437</v>
+        <v>154439.6391137593</v>
       </c>
       <c r="K6" t="n">
-        <v>300024.3397107602</v>
+        <v>299973.3090485758</v>
       </c>
       <c r="L6" t="n">
-        <v>300024.3397107602</v>
+        <v>299973.3090485759</v>
       </c>
       <c r="M6" t="n">
-        <v>126893.8485051205</v>
+        <v>126842.8178429364</v>
       </c>
       <c r="N6" t="n">
-        <v>300024.3397107602</v>
+        <v>299973.309048576</v>
       </c>
       <c r="O6" t="n">
-        <v>295940.8280197463</v>
+        <v>295868.3109233454</v>
       </c>
       <c r="P6" t="n">
-        <v>295940.828019746</v>
+        <v>295868.3109233454</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>206.2762395340009</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.095730177743576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.85370811560045</v>
+        <v>91.22347093296887</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>218.8867725835227</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>55.08045499971968</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>141.329452798235</v>
+        <v>198.2230562345411</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27909,10 +27909,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>304.4193999494618</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.1659342747064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>186.3619220111468</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5934272398632174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>245.6677613624788</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
+        <v>75.42597529544641</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>444.6058781505029</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3153151328282</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
-        <v>352.6096355399696</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>838.1216156792152</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>948.544011889563</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127374</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36208,22 +36208,22 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127487</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>174.9574718789468</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494338</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,10 +36603,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36618,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>106.3043917586369</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,16 +36840,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>444.6753049152899</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793778</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>644.3043763920493</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>776.7350918828461</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>197.5373662309363</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
